--- a/database/industries/nasaji/netrin/balancesheet/quarterly.xlsx
+++ b/database/industries/nasaji/netrin/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\nasaji\netrin\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7943AD9-70DD-4285-A9FF-A1702A6E83D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD030AC0-1673-462D-A664-B1043BBF85C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-09-08 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-30</t>
+  </si>
+  <si>
+    <t>1401-03-24 (9)</t>
+  </si>
+  <si>
+    <t>1400-05-11 (2)</t>
+  </si>
+  <si>
+    <t>1400-08-30 (2)</t>
   </si>
   <si>
     <t>1400-10-29</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>49161</v>
+      </c>
+      <c r="E12" s="15">
+        <v>108463</v>
+      </c>
+      <c r="F12" s="15">
+        <v>93903</v>
+      </c>
+      <c r="G12" s="15">
+        <v>19019</v>
+      </c>
+      <c r="H12" s="15">
+        <v>25678</v>
+      </c>
+      <c r="I12" s="15">
         <v>108164</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>52042</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>132139</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>269856</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>66155</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>77858</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>111858</v>
+      </c>
+      <c r="H13" s="11">
+        <v>74919</v>
+      </c>
+      <c r="I13" s="11">
         <v>71143</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>227275</v>
+      </c>
+      <c r="E14" s="15">
+        <v>343188</v>
+      </c>
+      <c r="F14" s="15">
+        <v>235183</v>
+      </c>
+      <c r="G14" s="15">
+        <v>211167</v>
+      </c>
+      <c r="H14" s="15">
+        <v>297843</v>
+      </c>
+      <c r="I14" s="15">
         <v>273973</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>270430</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>333985</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>478385</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>397479</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>131407</v>
+      </c>
+      <c r="E15" s="11">
+        <v>179595</v>
+      </c>
+      <c r="F15" s="11">
+        <v>135550</v>
+      </c>
+      <c r="G15" s="11">
+        <v>224214</v>
+      </c>
+      <c r="H15" s="11">
+        <v>333370</v>
+      </c>
+      <c r="I15" s="11">
         <v>419547</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>423002</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>509284</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>470950</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>575306</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>229088</v>
+      </c>
+      <c r="E16" s="15">
+        <v>79223</v>
+      </c>
+      <c r="F16" s="15">
+        <v>204723</v>
+      </c>
+      <c r="G16" s="15">
+        <v>347601</v>
+      </c>
+      <c r="H16" s="15">
+        <v>347997</v>
+      </c>
+      <c r="I16" s="15">
         <v>447464</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>257229</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>132645</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>66551</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>247090</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,31 +1151,61 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>636931</v>
+      </c>
+      <c r="E18" s="17">
+        <v>788327</v>
+      </c>
+      <c r="F18" s="17">
+        <v>669359</v>
+      </c>
+      <c r="G18" s="17">
+        <v>913859</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1079807</v>
+      </c>
+      <c r="I18" s="17">
         <v>1320291</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>1002703</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>1108053</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>1285742</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>1286030</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1011,10 +1223,25 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -1032,10 +1259,25 @@
       <c r="H20" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,73 +1295,133 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>597680</v>
+      </c>
+      <c r="E22" s="15">
+        <v>590033</v>
+      </c>
+      <c r="F22" s="15">
+        <v>834054</v>
+      </c>
+      <c r="G22" s="15">
+        <v>899329</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1024382</v>
+      </c>
+      <c r="I22" s="15">
         <v>1037358</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>1518686</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>1508177</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>1560005</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>1546848</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>3176</v>
+      </c>
+      <c r="E23" s="11">
+        <v>3617</v>
+      </c>
+      <c r="F23" s="11">
+        <v>3579</v>
+      </c>
+      <c r="G23" s="11">
+        <v>3653</v>
+      </c>
+      <c r="H23" s="11">
+        <v>3580</v>
+      </c>
+      <c r="I23" s="11">
         <v>3515</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>3860</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>3799</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>3739</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>3681</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1137,52 +1439,97 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>600856</v>
+      </c>
+      <c r="E26" s="17">
+        <v>593650</v>
+      </c>
+      <c r="F26" s="17">
+        <v>837633</v>
+      </c>
+      <c r="G26" s="17">
+        <v>902982</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1027962</v>
+      </c>
+      <c r="I26" s="17">
         <v>1040873</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>1522546</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>1511976</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>1563744</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>1550529</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>1237787</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1381977</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1506992</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1816841</v>
+      </c>
+      <c r="H27" s="19">
+        <v>2107769</v>
+      </c>
+      <c r="I27" s="19">
         <v>2361164</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>2525249</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>2620029</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>2849486</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>2836559</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,136 +1537,231 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>81419</v>
+      </c>
+      <c r="E29" s="15">
+        <v>98498</v>
+      </c>
+      <c r="F29" s="15">
+        <v>78520</v>
+      </c>
+      <c r="G29" s="15">
+        <v>94255</v>
+      </c>
+      <c r="H29" s="15">
+        <v>99958</v>
+      </c>
+      <c r="I29" s="15">
         <v>145281</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>222954</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>258500</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>323428</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>217569</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>2197</v>
+      </c>
+      <c r="E31" s="15">
+        <v>7694</v>
+      </c>
+      <c r="F31" s="15">
+        <v>19974</v>
+      </c>
+      <c r="G31" s="15">
+        <v>34543</v>
+      </c>
+      <c r="H31" s="15">
+        <v>19710</v>
+      </c>
+      <c r="I31" s="15">
         <v>65424</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>60848</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>40738</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>27435</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>31454</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>41474</v>
+      </c>
+      <c r="E32" s="11">
+        <v>22697</v>
+      </c>
+      <c r="F32" s="11">
+        <v>32979</v>
+      </c>
+      <c r="G32" s="11">
+        <v>39379</v>
+      </c>
+      <c r="H32" s="11">
+        <v>41218</v>
+      </c>
+      <c r="I32" s="11">
         <v>23638</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>64597</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>68972</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>49591</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>50606</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>2243</v>
+      </c>
+      <c r="E33" s="15">
+        <v>2152</v>
+      </c>
+      <c r="F33" s="15">
+        <v>2095</v>
+      </c>
+      <c r="G33" s="15">
+        <v>2067</v>
+      </c>
+      <c r="H33" s="15">
+        <v>170233</v>
+      </c>
+      <c r="I33" s="15">
         <v>109168</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>5444</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>5251</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>212176</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>212176</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>258285</v>
+      </c>
+      <c r="E34" s="11">
+        <v>341041</v>
+      </c>
+      <c r="F34" s="11">
+        <v>507917</v>
+      </c>
+      <c r="G34" s="11">
+        <v>642035</v>
+      </c>
+      <c r="H34" s="11">
+        <v>926229</v>
+      </c>
+      <c r="I34" s="11">
         <v>1105973</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
         <v>1250595</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>1239265</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>1382749</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>1415040</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1337,10 +1779,25 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1815,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>385618</v>
+      </c>
+      <c r="E37" s="17">
+        <v>472082</v>
+      </c>
+      <c r="F37" s="17">
+        <v>641485</v>
+      </c>
+      <c r="G37" s="17">
+        <v>812279</v>
+      </c>
+      <c r="H37" s="17">
+        <v>1257348</v>
+      </c>
+      <c r="I37" s="17">
         <v>1449484</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>1604438</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>1612726</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>1995379</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>1926845</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1392,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>7920</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -1400,52 +1887,97 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>6544</v>
+      </c>
+      <c r="G40" s="11">
+        <v>9107</v>
+      </c>
+      <c r="H40" s="11">
+        <v>6573</v>
+      </c>
+      <c r="I40" s="11">
         <v>5596</v>
       </c>
-      <c r="E40" s="11">
+      <c r="J40" s="11">
         <v>14712</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>17806</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>18955</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>18679</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
@@ -1463,52 +1995,97 @@
       <c r="H41" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>0</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0</v>
+      </c>
+      <c r="F42" s="19">
+        <v>14464</v>
+      </c>
+      <c r="G42" s="19">
+        <v>9107</v>
+      </c>
+      <c r="H42" s="19">
+        <v>6573</v>
+      </c>
+      <c r="I42" s="19">
         <v>5596</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>14712</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>17806</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>18955</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>18679</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>385618</v>
+      </c>
+      <c r="E43" s="17">
+        <v>472082</v>
+      </c>
+      <c r="F43" s="17">
+        <v>655949</v>
+      </c>
+      <c r="G43" s="17">
+        <v>821386</v>
+      </c>
+      <c r="H43" s="17">
+        <v>1263921</v>
+      </c>
+      <c r="I43" s="17">
         <v>1455080</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>1619150</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>1630532</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>2014334</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>1945524</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,14 +2093,19 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>775000</v>
+        <v>552442</v>
       </c>
       <c r="E45" s="15">
         <v>775000</v>
@@ -1537,10 +2119,25 @@
       <c r="H45" s="15">
         <v>775000</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>775000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>775000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>775000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>775000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>775000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1550,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="11">
-        <v>0</v>
+        <v>6137</v>
       </c>
       <c r="G46" s="11">
         <v>0</v>
@@ -1558,10 +2155,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1579,31 +2191,61 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
         <v>0</v>
       </c>
       <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>-111134</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
         <v>-105443</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-93210</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>-72589</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-63175</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1621,31 +2263,61 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>12615</v>
+      </c>
+      <c r="E50" s="11">
+        <v>15501</v>
+      </c>
+      <c r="F50" s="11">
         <v>18237</v>
       </c>
-      <c r="E50" s="11">
+      <c r="G50" s="11">
+        <v>19780</v>
+      </c>
+      <c r="H50" s="11">
+        <v>18237</v>
+      </c>
+      <c r="I50" s="11">
+        <v>18237</v>
+      </c>
+      <c r="J50" s="11">
         <v>29489</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>29489</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>29489</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>29489</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2407,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>287112</v>
+      </c>
+      <c r="E56" s="11">
+        <v>119394</v>
+      </c>
+      <c r="F56" s="11">
+        <v>162803</v>
+      </c>
+      <c r="G56" s="11">
+        <v>200675</v>
+      </c>
+      <c r="H56" s="11">
+        <v>50611</v>
+      </c>
+      <c r="I56" s="11">
         <v>112847</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>207053</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>278218</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>103252</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>149721</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>852169</v>
+      </c>
+      <c r="E57" s="17">
+        <v>909895</v>
+      </c>
+      <c r="F57" s="17">
+        <v>851043</v>
+      </c>
+      <c r="G57" s="17">
+        <v>995455</v>
+      </c>
+      <c r="H57" s="17">
+        <v>843848</v>
+      </c>
+      <c r="I57" s="17">
         <v>906084</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>906099</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>989497</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>835152</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>891035</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>1237787</v>
+      </c>
+      <c r="E58" s="19">
+        <v>1381977</v>
+      </c>
+      <c r="F58" s="19">
+        <v>1506992</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1816841</v>
+      </c>
+      <c r="H58" s="19">
+        <v>2107769</v>
+      </c>
+      <c r="I58" s="19">
         <v>2361164</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>2525249</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>2620029</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>2849486</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>2836559</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/nasaji/netrin/balancesheet/quarterly.xlsx
+++ b/database/industries/nasaji/netrin/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD030AC0-1673-462D-A664-B1043BBF85C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A79B4FD-5AF6-46A5-8271-1ECA083139DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-09-08 (2)</t>
-  </si>
-  <si>
     <t>1399-10-30</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1400-10-29</t>
   </si>
   <si>
-    <t>1401-10-28 (6)</t>
+    <t>1402-02-27 (7)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-27</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -732,18 +732,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -951,64 +952,64 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>49161</v>
+        <v>108463</v>
       </c>
       <c r="E12" s="15">
-        <v>108463</v>
+        <v>93903</v>
       </c>
       <c r="F12" s="15">
-        <v>93903</v>
+        <v>19019</v>
       </c>
       <c r="G12" s="15">
-        <v>19019</v>
+        <v>25678</v>
       </c>
       <c r="H12" s="15">
-        <v>25678</v>
+        <v>108164</v>
       </c>
       <c r="I12" s="15">
-        <v>108164</v>
+        <v>52042</v>
       </c>
       <c r="J12" s="15">
-        <v>52042</v>
+        <v>132139</v>
       </c>
       <c r="K12" s="15">
-        <v>132139</v>
+        <v>269856</v>
       </c>
       <c r="L12" s="15">
-        <v>269856</v>
+        <v>66155</v>
       </c>
       <c r="M12" s="15">
-        <v>66155</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>99982</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>0</v>
+        <v>77858</v>
       </c>
       <c r="E13" s="11">
-        <v>77858</v>
+        <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>111858</v>
       </c>
       <c r="G13" s="11">
-        <v>111858</v>
+        <v>74919</v>
       </c>
       <c r="H13" s="11">
-        <v>74919</v>
+        <v>71143</v>
       </c>
       <c r="I13" s="11">
-        <v>71143</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
@@ -1023,115 +1024,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>227275</v>
+        <v>343188</v>
       </c>
       <c r="E14" s="15">
-        <v>343188</v>
+        <v>235183</v>
       </c>
       <c r="F14" s="15">
-        <v>235183</v>
+        <v>211167</v>
       </c>
       <c r="G14" s="15">
-        <v>211167</v>
+        <v>297843</v>
       </c>
       <c r="H14" s="15">
-        <v>297843</v>
+        <v>273973</v>
       </c>
       <c r="I14" s="15">
-        <v>273973</v>
+        <v>270430</v>
       </c>
       <c r="J14" s="15">
-        <v>270430</v>
+        <v>333985</v>
       </c>
       <c r="K14" s="15">
-        <v>333985</v>
+        <v>478385</v>
       </c>
       <c r="L14" s="15">
-        <v>478385</v>
+        <v>397479</v>
       </c>
       <c r="M14" s="15">
-        <v>397479</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>272871</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>131407</v>
+        <v>179595</v>
       </c>
       <c r="E15" s="11">
-        <v>179595</v>
+        <v>135550</v>
       </c>
       <c r="F15" s="11">
-        <v>135550</v>
+        <v>224214</v>
       </c>
       <c r="G15" s="11">
-        <v>224214</v>
+        <v>333370</v>
       </c>
       <c r="H15" s="11">
-        <v>333370</v>
+        <v>419547</v>
       </c>
       <c r="I15" s="11">
-        <v>419547</v>
+        <v>423002</v>
       </c>
       <c r="J15" s="11">
-        <v>423002</v>
+        <v>509284</v>
       </c>
       <c r="K15" s="11">
-        <v>509284</v>
+        <v>470950</v>
       </c>
       <c r="L15" s="11">
-        <v>470950</v>
+        <v>575306</v>
       </c>
       <c r="M15" s="11">
-        <v>575306</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>471511</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>229088</v>
+        <v>79223</v>
       </c>
       <c r="E16" s="15">
-        <v>79223</v>
+        <v>204723</v>
       </c>
       <c r="F16" s="15">
-        <v>204723</v>
+        <v>347601</v>
       </c>
       <c r="G16" s="15">
-        <v>347601</v>
+        <v>347997</v>
       </c>
       <c r="H16" s="15">
-        <v>347997</v>
+        <v>447464</v>
       </c>
       <c r="I16" s="15">
-        <v>447464</v>
+        <v>257229</v>
       </c>
       <c r="J16" s="15">
-        <v>257229</v>
+        <v>132645</v>
       </c>
       <c r="K16" s="15">
-        <v>132645</v>
+        <v>66551</v>
       </c>
       <c r="L16" s="15">
-        <v>66551</v>
+        <v>247090</v>
       </c>
       <c r="M16" s="15">
-        <v>247090</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>208470</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1167,43 +1168,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>636931</v>
+        <v>788327</v>
       </c>
       <c r="E18" s="17">
-        <v>788327</v>
+        <v>669359</v>
       </c>
       <c r="F18" s="17">
-        <v>669359</v>
+        <v>913859</v>
       </c>
       <c r="G18" s="17">
-        <v>913859</v>
+        <v>1079807</v>
       </c>
       <c r="H18" s="17">
-        <v>1079807</v>
+        <v>1320291</v>
       </c>
       <c r="I18" s="17">
-        <v>1320291</v>
+        <v>1002703</v>
       </c>
       <c r="J18" s="17">
-        <v>1002703</v>
+        <v>1108053</v>
       </c>
       <c r="K18" s="17">
-        <v>1108053</v>
+        <v>1285742</v>
       </c>
       <c r="L18" s="17">
-        <v>1285742</v>
+        <v>1286030</v>
       </c>
       <c r="M18" s="17">
-        <v>1286030</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1052834</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1311,79 +1312,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>597680</v>
+        <v>590033</v>
       </c>
       <c r="E22" s="15">
-        <v>590033</v>
+        <v>834054</v>
       </c>
       <c r="F22" s="15">
-        <v>834054</v>
+        <v>899329</v>
       </c>
       <c r="G22" s="15">
-        <v>899329</v>
+        <v>1024382</v>
       </c>
       <c r="H22" s="15">
-        <v>1024382</v>
+        <v>1037358</v>
       </c>
       <c r="I22" s="15">
-        <v>1037358</v>
+        <v>1518686</v>
       </c>
       <c r="J22" s="15">
-        <v>1518686</v>
+        <v>1508177</v>
       </c>
       <c r="K22" s="15">
-        <v>1508177</v>
+        <v>1560005</v>
       </c>
       <c r="L22" s="15">
-        <v>1560005</v>
+        <v>1546848</v>
       </c>
       <c r="M22" s="15">
-        <v>1546848</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1548086</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>3176</v>
+        <v>3617</v>
       </c>
       <c r="E23" s="11">
-        <v>3617</v>
+        <v>3579</v>
       </c>
       <c r="F23" s="11">
-        <v>3579</v>
+        <v>3653</v>
       </c>
       <c r="G23" s="11">
-        <v>3653</v>
+        <v>3580</v>
       </c>
       <c r="H23" s="11">
-        <v>3580</v>
+        <v>3515</v>
       </c>
       <c r="I23" s="11">
-        <v>3515</v>
+        <v>3860</v>
       </c>
       <c r="J23" s="11">
-        <v>3860</v>
+        <v>3799</v>
       </c>
       <c r="K23" s="11">
-        <v>3799</v>
+        <v>3739</v>
       </c>
       <c r="L23" s="11">
-        <v>3739</v>
+        <v>3681</v>
       </c>
       <c r="M23" s="11">
-        <v>3681</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1455,79 +1456,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>600856</v>
+        <v>593650</v>
       </c>
       <c r="E26" s="17">
-        <v>593650</v>
+        <v>837633</v>
       </c>
       <c r="F26" s="17">
-        <v>837633</v>
+        <v>902982</v>
       </c>
       <c r="G26" s="17">
-        <v>902982</v>
+        <v>1027962</v>
       </c>
       <c r="H26" s="17">
-        <v>1027962</v>
+        <v>1040873</v>
       </c>
       <c r="I26" s="17">
-        <v>1040873</v>
+        <v>1522546</v>
       </c>
       <c r="J26" s="17">
-        <v>1522546</v>
+        <v>1511976</v>
       </c>
       <c r="K26" s="17">
-        <v>1511976</v>
+        <v>1563744</v>
       </c>
       <c r="L26" s="17">
-        <v>1563744</v>
+        <v>1550529</v>
       </c>
       <c r="M26" s="17">
-        <v>1550529</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1552229</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>1237787</v>
+        <v>1381977</v>
       </c>
       <c r="E27" s="19">
-        <v>1381977</v>
+        <v>1506992</v>
       </c>
       <c r="F27" s="19">
-        <v>1506992</v>
+        <v>1816841</v>
       </c>
       <c r="G27" s="19">
-        <v>1816841</v>
+        <v>2107769</v>
       </c>
       <c r="H27" s="19">
-        <v>2107769</v>
+        <v>2361164</v>
       </c>
       <c r="I27" s="19">
-        <v>2361164</v>
+        <v>2525249</v>
       </c>
       <c r="J27" s="19">
-        <v>2525249</v>
+        <v>2620029</v>
       </c>
       <c r="K27" s="19">
-        <v>2620029</v>
+        <v>2849486</v>
       </c>
       <c r="L27" s="19">
-        <v>2849486</v>
+        <v>2836559</v>
       </c>
       <c r="M27" s="19">
-        <v>2836559</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2605063</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1543,43 +1544,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>81419</v>
+        <v>98498</v>
       </c>
       <c r="E29" s="15">
-        <v>98498</v>
+        <v>78520</v>
       </c>
       <c r="F29" s="15">
-        <v>78520</v>
+        <v>94255</v>
       </c>
       <c r="G29" s="15">
-        <v>94255</v>
+        <v>99958</v>
       </c>
       <c r="H29" s="15">
-        <v>99958</v>
+        <v>145281</v>
       </c>
       <c r="I29" s="15">
-        <v>145281</v>
+        <v>222954</v>
       </c>
       <c r="J29" s="15">
-        <v>222954</v>
+        <v>258500</v>
       </c>
       <c r="K29" s="15">
-        <v>258500</v>
+        <v>323428</v>
       </c>
       <c r="L29" s="15">
-        <v>323428</v>
+        <v>217569</v>
       </c>
       <c r="M29" s="15">
-        <v>217569</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>127783</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1615,151 +1616,151 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>2197</v>
+        <v>7694</v>
       </c>
       <c r="E31" s="15">
-        <v>7694</v>
+        <v>19974</v>
       </c>
       <c r="F31" s="15">
-        <v>19974</v>
+        <v>34543</v>
       </c>
       <c r="G31" s="15">
-        <v>34543</v>
+        <v>19710</v>
       </c>
       <c r="H31" s="15">
-        <v>19710</v>
+        <v>65424</v>
       </c>
       <c r="I31" s="15">
-        <v>65424</v>
+        <v>60848</v>
       </c>
       <c r="J31" s="15">
-        <v>60848</v>
+        <v>40738</v>
       </c>
       <c r="K31" s="15">
-        <v>40738</v>
+        <v>27435</v>
       </c>
       <c r="L31" s="15">
-        <v>27435</v>
+        <v>31454</v>
       </c>
       <c r="M31" s="15">
-        <v>31454</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>62945</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>41474</v>
+        <v>22697</v>
       </c>
       <c r="E32" s="11">
-        <v>22697</v>
+        <v>32979</v>
       </c>
       <c r="F32" s="11">
-        <v>32979</v>
+        <v>39379</v>
       </c>
       <c r="G32" s="11">
-        <v>39379</v>
+        <v>41218</v>
       </c>
       <c r="H32" s="11">
-        <v>41218</v>
+        <v>23638</v>
       </c>
       <c r="I32" s="11">
-        <v>23638</v>
+        <v>64597</v>
       </c>
       <c r="J32" s="11">
-        <v>64597</v>
+        <v>68972</v>
       </c>
       <c r="K32" s="11">
-        <v>68972</v>
+        <v>49591</v>
       </c>
       <c r="L32" s="11">
-        <v>49591</v>
+        <v>50606</v>
       </c>
       <c r="M32" s="11">
-        <v>50606</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>57208</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>2243</v>
+        <v>2152</v>
       </c>
       <c r="E33" s="15">
-        <v>2152</v>
+        <v>2095</v>
       </c>
       <c r="F33" s="15">
-        <v>2095</v>
+        <v>2067</v>
       </c>
       <c r="G33" s="15">
-        <v>2067</v>
+        <v>170233</v>
       </c>
       <c r="H33" s="15">
-        <v>170233</v>
+        <v>109168</v>
       </c>
       <c r="I33" s="15">
-        <v>109168</v>
+        <v>5444</v>
       </c>
       <c r="J33" s="15">
-        <v>5444</v>
+        <v>5251</v>
       </c>
       <c r="K33" s="15">
-        <v>5251</v>
+        <v>212176</v>
       </c>
       <c r="L33" s="15">
         <v>212176</v>
       </c>
       <c r="M33" s="15">
-        <v>212176</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>28048</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>258285</v>
+        <v>341041</v>
       </c>
       <c r="E34" s="11">
-        <v>341041</v>
+        <v>507917</v>
       </c>
       <c r="F34" s="11">
-        <v>507917</v>
+        <v>642035</v>
       </c>
       <c r="G34" s="11">
-        <v>642035</v>
+        <v>926229</v>
       </c>
       <c r="H34" s="11">
-        <v>926229</v>
+        <v>1105973</v>
       </c>
       <c r="I34" s="11">
-        <v>1105973</v>
+        <v>1250595</v>
       </c>
       <c r="J34" s="11">
-        <v>1250595</v>
+        <v>1239265</v>
       </c>
       <c r="K34" s="11">
-        <v>1239265</v>
+        <v>1382749</v>
       </c>
       <c r="L34" s="11">
-        <v>1382749</v>
+        <v>1415040</v>
       </c>
       <c r="M34" s="11">
-        <v>1415040</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1344117</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1831,43 +1832,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>385618</v>
+        <v>472082</v>
       </c>
       <c r="E37" s="17">
-        <v>472082</v>
+        <v>641485</v>
       </c>
       <c r="F37" s="17">
-        <v>641485</v>
+        <v>812279</v>
       </c>
       <c r="G37" s="17">
-        <v>812279</v>
+        <v>1257348</v>
       </c>
       <c r="H37" s="17">
-        <v>1257348</v>
+        <v>1449484</v>
       </c>
       <c r="I37" s="17">
-        <v>1449484</v>
+        <v>1604438</v>
       </c>
       <c r="J37" s="17">
-        <v>1604438</v>
+        <v>1612726</v>
       </c>
       <c r="K37" s="17">
-        <v>1612726</v>
+        <v>1995379</v>
       </c>
       <c r="L37" s="17">
-        <v>1995379</v>
+        <v>1926845</v>
       </c>
       <c r="M37" s="17">
-        <v>1926845</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1620101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1876,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>7920</v>
       </c>
       <c r="F38" s="11">
-        <v>7920</v>
+        <v>0</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -1903,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1948,34 +1949,34 @@
         <v>0</v>
       </c>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>6544</v>
       </c>
       <c r="F40" s="11">
-        <v>6544</v>
+        <v>9107</v>
       </c>
       <c r="G40" s="11">
-        <v>9107</v>
+        <v>6573</v>
       </c>
       <c r="H40" s="11">
-        <v>6573</v>
+        <v>5596</v>
       </c>
       <c r="I40" s="11">
-        <v>5596</v>
+        <v>14712</v>
       </c>
       <c r="J40" s="11">
-        <v>14712</v>
+        <v>17806</v>
       </c>
       <c r="K40" s="11">
-        <v>17806</v>
+        <v>18955</v>
       </c>
       <c r="L40" s="11">
-        <v>18955</v>
+        <v>18679</v>
       </c>
       <c r="M40" s="11">
-        <v>18679</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>14710</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
@@ -2020,70 +2021,70 @@
         <v>0</v>
       </c>
       <c r="E42" s="19">
-        <v>0</v>
+        <v>14464</v>
       </c>
       <c r="F42" s="19">
-        <v>14464</v>
+        <v>9107</v>
       </c>
       <c r="G42" s="19">
-        <v>9107</v>
+        <v>6573</v>
       </c>
       <c r="H42" s="19">
-        <v>6573</v>
+        <v>5596</v>
       </c>
       <c r="I42" s="19">
-        <v>5596</v>
+        <v>14712</v>
       </c>
       <c r="J42" s="19">
-        <v>14712</v>
+        <v>17806</v>
       </c>
       <c r="K42" s="19">
-        <v>17806</v>
+        <v>18955</v>
       </c>
       <c r="L42" s="19">
-        <v>18955</v>
+        <v>18679</v>
       </c>
       <c r="M42" s="19">
-        <v>18679</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>14710</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>385618</v>
+        <v>472082</v>
       </c>
       <c r="E43" s="17">
-        <v>472082</v>
+        <v>655949</v>
       </c>
       <c r="F43" s="17">
-        <v>655949</v>
+        <v>821386</v>
       </c>
       <c r="G43" s="17">
-        <v>821386</v>
+        <v>1263921</v>
       </c>
       <c r="H43" s="17">
-        <v>1263921</v>
+        <v>1455080</v>
       </c>
       <c r="I43" s="17">
-        <v>1455080</v>
+        <v>1619150</v>
       </c>
       <c r="J43" s="17">
-        <v>1619150</v>
+        <v>1630532</v>
       </c>
       <c r="K43" s="17">
-        <v>1630532</v>
+        <v>2014334</v>
       </c>
       <c r="L43" s="17">
-        <v>2014334</v>
+        <v>1945524</v>
       </c>
       <c r="M43" s="17">
-        <v>1945524</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1634811</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2099,13 +2100,13 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>552442</v>
+        <v>775000</v>
       </c>
       <c r="E45" s="15">
         <v>775000</v>
@@ -2135,7 +2136,7 @@
         <v>775000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2144,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="11">
-        <v>0</v>
+        <v>6137</v>
       </c>
       <c r="F46" s="11">
-        <v>6137</v>
+        <v>0</v>
       </c>
       <c r="G46" s="11">
         <v>0</v>
@@ -2171,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2216,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-111134</v>
       </c>
       <c r="F48" s="11">
-        <v>-111134</v>
+        <v>0</v>
       </c>
       <c r="G48" s="11">
         <v>0</v>
@@ -2228,22 +2229,22 @@
         <v>0</v>
       </c>
       <c r="I48" s="11">
-        <v>0</v>
+        <v>-105443</v>
       </c>
       <c r="J48" s="11">
-        <v>-105443</v>
+        <v>-93210</v>
       </c>
       <c r="K48" s="11">
-        <v>-93210</v>
+        <v>-72589</v>
       </c>
       <c r="L48" s="11">
-        <v>-72589</v>
+        <v>-63175</v>
       </c>
       <c r="M48" s="11">
-        <v>-63175</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-74129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2279,28 +2280,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>12615</v>
+        <v>15501</v>
       </c>
       <c r="E50" s="11">
-        <v>15501</v>
+        <v>18237</v>
       </c>
       <c r="F50" s="11">
+        <v>19780</v>
+      </c>
+      <c r="G50" s="11">
         <v>18237</v>
-      </c>
-      <c r="G50" s="11">
-        <v>19780</v>
       </c>
       <c r="H50" s="11">
         <v>18237</v>
       </c>
       <c r="I50" s="11">
-        <v>18237</v>
+        <v>29489</v>
       </c>
       <c r="J50" s="11">
         <v>29489</v>
@@ -2312,10 +2313,10 @@
         <v>29489</v>
       </c>
       <c r="M50" s="11">
-        <v>29489</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2495,115 +2496,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>287112</v>
+        <v>119394</v>
       </c>
       <c r="E56" s="11">
-        <v>119394</v>
+        <v>162803</v>
       </c>
       <c r="F56" s="11">
-        <v>162803</v>
+        <v>200675</v>
       </c>
       <c r="G56" s="11">
-        <v>200675</v>
+        <v>50611</v>
       </c>
       <c r="H56" s="11">
-        <v>50611</v>
+        <v>112847</v>
       </c>
       <c r="I56" s="11">
-        <v>112847</v>
+        <v>207053</v>
       </c>
       <c r="J56" s="11">
-        <v>207053</v>
+        <v>278218</v>
       </c>
       <c r="K56" s="11">
-        <v>278218</v>
+        <v>103252</v>
       </c>
       <c r="L56" s="11">
-        <v>103252</v>
+        <v>149721</v>
       </c>
       <c r="M56" s="11">
-        <v>149721</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>226038</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>852169</v>
+        <v>909895</v>
       </c>
       <c r="E57" s="17">
-        <v>909895</v>
+        <v>851043</v>
       </c>
       <c r="F57" s="17">
-        <v>851043</v>
+        <v>995455</v>
       </c>
       <c r="G57" s="17">
-        <v>995455</v>
+        <v>843848</v>
       </c>
       <c r="H57" s="17">
-        <v>843848</v>
+        <v>906084</v>
       </c>
       <c r="I57" s="17">
-        <v>906084</v>
+        <v>906099</v>
       </c>
       <c r="J57" s="17">
-        <v>906099</v>
+        <v>989497</v>
       </c>
       <c r="K57" s="17">
-        <v>989497</v>
+        <v>835152</v>
       </c>
       <c r="L57" s="17">
-        <v>835152</v>
+        <v>891035</v>
       </c>
       <c r="M57" s="17">
-        <v>891035</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>970252</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>1237787</v>
+        <v>1381977</v>
       </c>
       <c r="E58" s="19">
-        <v>1381977</v>
+        <v>1506992</v>
       </c>
       <c r="F58" s="19">
-        <v>1506992</v>
+        <v>1816841</v>
       </c>
       <c r="G58" s="19">
-        <v>1816841</v>
+        <v>2107769</v>
       </c>
       <c r="H58" s="19">
-        <v>2107769</v>
+        <v>2361164</v>
       </c>
       <c r="I58" s="19">
-        <v>2361164</v>
+        <v>2525249</v>
       </c>
       <c r="J58" s="19">
-        <v>2525249</v>
+        <v>2620029</v>
       </c>
       <c r="K58" s="19">
-        <v>2620029</v>
+        <v>2849486</v>
       </c>
       <c r="L58" s="19">
-        <v>2849486</v>
+        <v>2836559</v>
       </c>
       <c r="M58" s="19">
-        <v>2836559</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2605063</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
